--- a/biology/Botanique/Campanule/Campanule.xlsx
+++ b/biology/Botanique/Campanule/Campanule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula
-Les campanules (genre Campanula du latin campana, « petite cloche ») sont des plantes herbacées vivaces ou bisannuelles de la famille des Campanulacées. Leurs fleurs — bleues, violettes ou blanches — sont hermaphrodites. Le calice présente cinq dents, souvent assez étroites. La corolle, en cloche, s'ouvre en cinq lobes. Cinq étamines. Ovaire infère. Style solitaire. Le fruit est une capsule à nombreuses graines. Leur large dispersion dans le monde montre qu'il s'agit d'un genre hémérochore. La Campanule regroupe plus de 250 espèces que l'on retrouve principalement en zones tempérées[1]. Certaines campanules sont comestibles.
+Les campanules (genre Campanula du latin campana, « petite cloche ») sont des plantes herbacées vivaces ou bisannuelles de la famille des Campanulacées. Leurs fleurs — bleues, violettes ou blanches — sont hermaphrodites. Le calice présente cinq dents, souvent assez étroites. La corolle, en cloche, s'ouvre en cinq lobes. Cinq étamines. Ovaire infère. Style solitaire. Le fruit est une capsule à nombreuses graines. Leur large dispersion dans le monde montre qu'il s'agit d'un genre hémérochore. La Campanule regroupe plus de 250 espèces que l'on retrouve principalement en zones tempérées. Certaines campanules sont comestibles.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Campanula alpestris (Syn. Campanula allionii) — Campanule des Alpes (occidentales)
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Campanula alpestris (Syn. Campanula allionii) — Campanule des Alpes (occidentales)
 Campanula barbata — Campanule barbue
 Campanula bononiensis — Campanule de Bologne
 Campanula cenisia — Campanule du Mont Cenis
@@ -536,9 +553,43 @@
 Campanula speciosa - Campanule des Corbières (uniquement présente sur les éboulis et rochers calcaires des Causses du Massif central et des Pyrénées orientales et centrales)
 Campanula spicata - Campanule en épi
 Campanula thyrsoides — Campanule en thyrse
-Campanula trachelium — Campanule gantelée
-Au Canada
-Campanula alaskana
+Campanula trachelium — Campanule gantelée</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Campanule</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanule</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Campanula alaskana
 Campanula americana
 Campanula aparinoides
 Campanula aurita
@@ -557,8 +608,43 @@
 Campanula scouleri
 Campanula trachelium
 Campanula trachelium subsp. trachelium
-Campanula uniflora
-Autres
+Campanula uniflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Campanule</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanule</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Campanula abietina
 Campanula adsurgens
 Campanula affinis
@@ -692,33 +778,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Campanule</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Campanule</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campanula latifolia
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Campanula latifolia
 			fleurs fanées
 			fleurs
 			Plante en fleurs
@@ -740,9 +828,43 @@
 Campanula speciosa
 Campanula spicata
 Campanula trachelium — Campanule gantelée
-Campanula thyrsoides
-Flore en dehors de la France
-Campanula alliariifolia
+Campanula thyrsoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Campanule</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanule</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flore en dehors de la France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula alliariifolia
 Campanula garganica — Campanule étoilée
 			Campanula garganica
 Campanula grossekii
